--- a/public/preprocessing/@AlthafOriz.xlsx
+++ b/public/preprocessing/@AlthafOriz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21171</v>
+        <v>24528</v>
       </c>
       <c r="C2" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>kurang kurangiii ngab gabaek buat kesehatan</t>
+          <t>yaelah ngab ngabbb</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['kurang', 'kurangiii', 'ngab', 'gabaek', 'buat', 'kesehatan']</t>
+          <t>['yaelah', 'ngab', 'ngabbb']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['yaelah', 'ngab', 'ngabbb']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['kurangiii', 'ngab', 'gabaek', 'kesehatan']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['kurangiii', 'ngab', 'gabaek', 'sehat']</t>
+          <t>['yaelah', 'ngab', 'ngabbb']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['yaelah', 'ngab', 'ngabbb']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21172</v>
+        <v>24529</v>
       </c>
       <c r="C3" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>tapi apa bangsat anak ngen</t>
+          <t>ye lu itu ma</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['tapi', 'apa', 'bangsat', 'anak', 'ngen']</t>
+          <t>['ye', 'lu', 'itu', 'ma']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['iya', 'kamu', 'itu', 'sama']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['bangsat', 'anak', 'ngen']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['bangsat', 'anak', 'ngen']</t>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['iya']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21173</v>
+        <v>24530</v>
       </c>
       <c r="C4" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>rt habis sholat jangan langsung berdiri</t>
+          <t>sia goblog</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['rt', 'habis', 'sholat', 'jangan', 'langsung', 'berdiri']</t>
+          <t>['sia', 'goblog']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['kamu', 'goblok']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['habis', 'sholat', 'langsung', 'berdiri']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['habis', 'sholat', 'langsung', 'diri']</t>
+          <t>['goblok']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['goblok']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21174</v>
+        <v>24531</v>
       </c>
       <c r="C5" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>urusan det belakangan penting deal sek ra</t>
+          <t>sepandaipandainya kamu nyari topik obrolan kalo bukan kamu yang dia mau ya jawabannya pasti singkat padat bangsat</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['urusan', 'det', 'belakangan', 'penting', 'deal', 'sek', 'ra']</t>
+          <t>['sepandaipandainya', 'kamu', 'nyari', 'topik', 'obrolan', 'kalo', 'bukan', 'kamu', 'yang', 'dia', 'mau', 'ya', 'jawabannya', 'pasti', 'singkat', 'padat', 'bangsat']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['sepandaipandainya', 'kamu', 'mencari', 'topik', 'obrolan', 'kalau', 'bukan', 'kamu', 'yang', 'dia', 'mau', 'ya', 'jawabannya', 'pasti', 'singkat', 'padat', 'bangsat']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['urusan', 'det', 'deal', 'sek', 'ra']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['urus', 'det', 'deal', 'sek', 'ra']</t>
+          <t>['sepandaipandainya', 'mencari', 'topik', 'obrolan', 'jawabannya', 'singkat', 'padat', 'bangsat']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['sepandaipandainya', 'cari', 'topik', 'obrol', 'jawab', 'singkat', 'padat', 'bangsat']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21175</v>
+        <v>24532</v>
       </c>
       <c r="C6" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>hoala cah asu cah asu mending holiday</t>
+          <t>mampus pait</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['hoala', 'cah', 'asu', 'cah', 'asu', 'mending', 'holiday']</t>
+          <t>['mampus', 'pait']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 7 outcomes&gt;</t>
+          <t>['mampus', 'pahit']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['hoala', 'cah', 'asu', 'cah', 'asu', 'mending', 'holiday']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['hoala', 'cah', 'asu', 'cah', 'asu', 'mending', 'holiday']</t>
+          <t>['mampus', 'pahit']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['mampus', 'pahit']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21176</v>
+        <v>24533</v>
       </c>
       <c r="C7" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>sg penting yakin to yaaaa</t>
+          <t>bacot lah anjinggggg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['sg', 'penting', 'yakin', 'to', 'yaaaa']</t>
+          <t>['bacot', 'lah', 'anjinggggg']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['bacot', 'lah', 'anjinggggg']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['sg', 'to', 'yaaaa']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['sg', 'to', 'yaaaa']</t>
+          <t>['bacot', 'anjinggggg']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['bacot', 'anjinggggg']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21177</v>
+        <v>24534</v>
       </c>
       <c r="C8" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>salah serper lek serper dangdut pindah sebelah</t>
+          <t>fahri mulutnya belom ae di silet</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['salah', 'serper', 'lek', 'serper', 'dangdut', 'pindah', 'sebelah']</t>
+          <t>['fahri', 'mulutnya', 'belom', 'ae', 'di', 'silet']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+          <t>['fahri', 'mulutnya', 'belum', 'saja', 'di', 'silet']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['salah', 'serper', 'lek', 'serper', 'dangdut', 'pindah', 'sebelah']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['salah', 'serper', 'lek', 'serper', 'dangdut', 'pindah', 'belah']</t>
+          <t>['fahri', 'mulutnya', 'silet']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['fahri', 'mulut', 'silet']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21178</v>
+        <v>24535</v>
       </c>
       <c r="C9" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>rossa ternyata kepala tertangkap gagal mencetak gol bung</t>
+          <t>biasalah</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['rossa', 'ternyata', 'kepala', 'tertangkap', 'gagal', 'mencetak', 'gol', 'bung']</t>
+          <t>['biasalah']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['biasalah']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['rossa', 'kepala', 'tertangkap', 'gagal', 'mencetak', 'gol']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['rossa', 'kepala', 'tangkap', 'gagal', 'cetak', 'gol']</t>
+          <t>['biasalah']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['biasa']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21179</v>
+        <v>24536</v>
       </c>
       <c r="C10" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>rossa kepala lu gelinding ege bang jep</t>
+          <t>waalaikumsalam bank bca</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['rossa', 'kepala', 'lu', 'gelinding', 'ege', 'bang', 'jep']</t>
+          <t>['waalaikumsalam', 'bank', 'bca']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['waalaikumsalam', 'bank', 'baca']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['rossa', 'kepala', 'lu', 'gelinding', 'ege', 'bang', 'jep']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['rossa', 'kepala', 'lu', 'gelinding', 'ege', 'bang', 'jep']</t>
+          <t>['waalaikumsalam', 'bank', 'baca']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['waalaikumsalam', 'bank', 'baca']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21180</v>
+        <v>24537</v>
       </c>
       <c r="C11" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>bund hidup berjalan seperti</t>
+          <t>aali naik yuhu</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['bund', 'hidup', 'berjalan', 'seperti']</t>
+          <t>['aali', 'naik', 'yuhu']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['aali', 'naik', 'iya']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['bund', 'hidup', 'berjalan']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['bund', 'hidup', 'jalan']</t>
+          <t>['aali', 'iya']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['aali', 'iya']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21181</v>
+        <v>24538</v>
       </c>
       <c r="C12" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>rossa maap anjing gua galiat lu disitu cuk jep jep</t>
+          <t>disewakan lurrrddd</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['rossa', 'maap', 'anjing', 'gua', 'galiat', 'lu', 'disitu', 'cuk', 'jep', 'jep']</t>
+          <t>['disewakan', 'lurrrddd']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['disewakan', 'lurrrddd']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['rossa', 'maap', 'anjing', 'gua', 'galiat', 'lu', 'disitu', 'cuk', 'jep', 'jep']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['rossa', 'maap', 'anjing', 'gua', 'galiat', 'lu', 'situ', 'cuk', 'jep', 'jep']</t>
+          <t>['disewakan', 'lurrrddd']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['sewa', 'lurrrddd']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21182</v>
+        <v>24539</v>
       </c>
       <c r="C13" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>rossa yaudah sana aku mau kayang sambil ngepel lantai dulu</t>
+          <t>cok kamarku meh tak gawe ngene lah mayan duit  kmalam</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['rossa', 'yaudah', 'sana', 'aku', 'mau', 'kayang', 'sambil', 'ngepel', 'lantai', 'dulu']</t>
+          <t>['cok', 'kamarku', 'meh', 'tak', 'gawe', 'ngene', 'lah', 'mayan', 'duit', 'kmalam']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['cok', 'kamarku', 'meh', 'tak', 'kerja', 'ini', 'lah', 'lumayan', 'duit', 'kmalam']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['rossa', 'yaudah', 'kayang', 'ngepel', 'lantai']</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['rossa', 'yaudah', 'kayang', 'ngepel', 'lantai']</t>
+          <t>['cok', 'kamarku', 'meh', 'kerja', 'lumayan', 'duit', 'kmalam']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['cok', 'kamar', 'meh', 'kerja', 'lumayan', 'duit', 'kmalam']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21183</v>
+        <v>24540</v>
       </c>
       <c r="C14" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>paansi anjinggg gajelas si ngtd</t>
+          <t>mind too for sure im already yours</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['paansi', 'anjinggg', 'gajelas', 'si', 'ngtd']</t>
+          <t>['mind', 'too', 'for', 'sure', 'im', 'already', 'yours']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['mind', 'too', 'for', 'sure', 'im', 'already', 'yours']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['paansi', 'anjinggg', 'gajelas', 'ngtd']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['paansi', 'anjinggg', 'gajelas', 'ngtd']</t>
+          <t>['mind', 'too', 'for', 'sure', 'im', 'already', 'yours']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['mind', 'too', 'for', 'sure', 'im', 'already', 'yours']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21184</v>
+        <v>24541</v>
       </c>
       <c r="C15" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>rt dia pun pernah bercerita bagaimana dia di sakiti oleh yang dia cintai di depan aku yang mencintai nya</t>
+          <t>tarik napas dalem aja lebih dari cukup</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['rt', 'dia', 'pun', 'pernah', 'bercerita', 'bagaimana', 'dia', 'di', 'sakiti', 'oleh', 'yang', 'dia', 'cintai', 'di', 'depan', 'aku', 'yang', 'mencintai', 'nya']</t>
+          <t>['tarik', 'napas', 'dalem', 'aja', 'lebih', 'dari', 'cukup']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
+          <t>['tarik', 'napas', 'dalam', 'saja', 'lebih', 'dari', 'cukup']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['bercerita', 'sakiti', 'cintai', 'mencintai']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['cerita', 'sakit', 'cinta', 'cinta']</t>
+          <t>['tarik', 'napas']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['tarik', 'napas']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>21185</v>
+        <v>24542</v>
       </c>
       <c r="C16" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>bulan maret det ku garek sakipetttt</t>
+          <t>ganteng doang nendang bola kaki kanan</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['bulan', 'maret', 'det', 'ku', 'garek', 'sakipetttt']</t>
+          <t>['ganteng', 'doang', 'nendang', 'bola', 'kaki', 'kanan']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['ganteng', 'doang', 'nendang', 'bola', 'kaki', 'kanan']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['maret', 'det', 'ku', 'garek', 'sakipetttt']</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['maret', 'det', 'ku', 'garek', 'sakipetttt']</t>
+          <t>['ganteng', 'doang', 'nendang', 'bola', 'kaki', 'kanan']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['ganteng', 'doang', 'nendang', 'bola', 'kaki', 'kanan']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21186</v>
+        <v>24543</v>
       </c>
       <c r="C17" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>yak tiktok ya akun bucin semua jadi satu lah yaaa bund</t>
+          <t>rt apa yang paling lu butuhin saat ini</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['yak', 'tiktok', 'ya', 'akun', 'bucin', 'semua', 'jadi', 'satu', 'lah', 'yaaa', 'bund']</t>
+          <t>['rt', 'apa', 'yang', 'paling', 'lu', 'butuhin', 'saat', 'ini']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'apa', 'yang', 'paling', 'kamu', 'butuhin', 'saat', 'ini']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['yak', 'tiktok', 'akun', 'bucin', 'yaaa', 'bund']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['yak', 'tiktok', 'akun', 'bucin', 'yaaa', 'bund']</t>
+          <t>['butuhin']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['butuhin']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21187</v>
+        <v>24544</v>
       </c>
       <c r="C18" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>serper sebelah masih kalah jauh sama asbak surya</t>
+          <t>ayo para colikiawan yang gagal menjadi cendikiawan bisa dicoba</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['serper', 'sebelah', 'masih', 'kalah', 'jauh', 'sama', 'asbak', 'surya']</t>
+          <t>['ayo', 'para', 'colikiawan', 'yang', 'gagal', 'menjadi', 'cendikiawan', 'bisa', 'dicoba']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['ayo', 'para', 'colikiawan', 'yang', 'gagal', 'menjadi', 'cendikiawan', 'bisa', 'dicoba']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['serper', 'sebelah', 'kalah', 'asbak', 'surya']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['serper', 'belah', 'kalah', 'asbak', 'surya']</t>
+          <t>['ayo', 'colikiawan', 'gagal', 'cendikiawan', 'dicoba']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['ayo', 'colikiawan', 'gagal', 'cendikiawan', 'coba']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21188</v>
+        <v>24545</v>
       </c>
       <c r="C19" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>conda canda conda candaaa nyoh</t>
+          <t>gabutid bukan pantun bngsttt maen cakep cakep bae</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['conda', 'canda', 'conda', 'candaaa', 'nyoh']</t>
+          <t>['gabutid', 'bukan', 'pantun', 'bngsttt', 'maen', 'cakep', 'cakep', 'bae']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
+          <t>['gabutid', 'bukan', 'pantun', 'bngsttt', 'main', 'cakap', 'cakap', 'baik']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['conda', 'canda', 'conda', 'candaaa', 'nyoh']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['conda', 'canda', 'conda', 'candaaa', 'nyoh']</t>
+          <t>['gabutid', 'pantun', 'bngsttt', 'main', 'cakap', 'cakap']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['gabutid', 'pantun', 'bngsttt', 'main', 'cakap', 'cakap']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>21189</v>
+        <v>24546</v>
       </c>
       <c r="C20" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>puntennn</t>
+          <t>yo kerja yo kuliah yo mencintaimu berat lurd</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['puntennn']</t>
+          <t>['yo', 'kerja', 'yo', 'kuliah', 'yo', 'mencintaimu', 'berat', 'lurd']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['iya', 'kerja', 'iya', 'kuliah', 'iya', 'mencintaimu', 'berat', 'bro']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['puntennn']</t>
+          <t>&lt;FreqDist with 6 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['puntennn']</t>
+          <t>['iya', 'kerja', 'iya', 'kuliah', 'iya', 'mencintaimu', 'berat', 'bro']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['iya', 'kerja', 'iya', 'kuliah', 'iya', 'cinta', 'berat', 'bro']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21190</v>
+        <v>24547</v>
       </c>
       <c r="C21" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>yap</t>
+          <t>gabutid hiya hiyaaa sesok nk meh mangkat wonosobo tak kontek mas  wkwkw</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['yap']</t>
+          <t>['gabutid', 'hiya', 'hiyaaa', 'sesok', 'nk', 'meh', 'mangkat', 'wonosobo', 'tak', 'kontek', 'mas', 'wkwkw']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['gabutid', 'hiya', 'hiyaaa', 'sesok', 'natural, killer', 'meh', 'mangkat', 'wonosobo', 'tak', 'kontek', 'mas', 'wkwk']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['yap']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['yap']</t>
+          <t>['gabutid', 'hiya', 'hiyaaa', 'sesok', 'natural, killer', 'meh', 'mangkat', 'wonosobo', 'kontek', 'mas', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['gabutid', 'hiya', 'hiyaaa', 'sok', 'natural killer', 'meh', 'mangkat', 'wonosobo', 'kontek', 'mas', 'wkwk']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21191</v>
+        <v>24548</v>
       </c>
       <c r="C22" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>cwku</t>
+          <t>da moal meser ah</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['cwku']</t>
+          <t>['da', 'moal', 'meser', 'ah']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['dan', 'enggak', 'meser', 'ah']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['cwku']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['cwku']</t>
+          <t>['meser', 'ah']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['meser', 'ah']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21192</v>
+        <v>24549</v>
       </c>
       <c r="C23" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>rt maunya telfonan jam sama kamu bisa gak kira kira</t>
+          <t>besok gua warnain rambut pink juga dah kalo gini caranya</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['rt', 'maunya', 'telfonan', 'jam', 'sama', 'kamu', 'bisa', 'gak', 'kira', 'kira']</t>
+          <t>['besok', 'gua', 'warnain', 'rambut', 'pink', 'juga', 'dah', 'kalo', 'gini', 'caranya']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+          <t>['besok', 'gue', 'warnain', 'rambut', 'merah, muda', 'juga', 'sudah', 'kalau', 'begini', 'caranya']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['maunya', 'telfonan', 'jam']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['mau', 'telfonan', 'jam']</t>
+          <t>['besok', 'gue', 'warnain', 'rambut', 'merah, muda']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['besok', 'gue', 'warnain', 'rambut', 'merah muda']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>21193</v>
+        <v>24550</v>
       </c>
       <c r="C24" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>auto ciu berlabel pajak pinter juga</t>
+          <t>surya sirya</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['auto', 'ciu', 'berlabel', 'pajak', 'pinter', 'juga']</t>
+          <t>['surya', 'sirya']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['surya', 'sirya']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['auto', 'ciu', 'berlabel', 'pajak', 'pinter']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['auto', 'ciu', 'label', 'pajak', 'pinter']</t>
+          <t>['surya', 'sirya']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['surya', 'sirya']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21194</v>
+        <v>24551</v>
       </c>
       <c r="C25" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>anjing pisan ieu bapack bapack</t>
+          <t>gabutid duh dekkkk wkwkw undangam dimana mana ini yak wkwkw</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['anjing', 'pisan', 'ieu', 'bapack', 'bapack']</t>
+          <t>['gabutid', 'duh', 'dekkkk', 'wkwkw', 'undangam', 'dimana', 'mana', 'ini', 'yak', 'wkwkw']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
+          <t>['gabutid', 'aduh', 'dekkkk', 'wkwk', 'undangam', 'dimana', 'mana', 'ini', 'ya', 'wkwk']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['anjing', 'pisan', 'ieu', 'bapack', 'bapack']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['anjing', 'pis', 'ieu', 'bapack', 'bapack']</t>
+          <t>['gabutid', 'aduh', 'dekkkk', 'wkwk', 'undangam', 'dimana', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['gabutid', 'aduh', 'dekkkk', 'wkwk', 'undangam', 'mana', 'wkwk']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>21195</v>
+        <v>24552</v>
       </c>
       <c r="C26" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>rt omah boto house andyrahman architect</t>
+          <t>gabutid tenang tenang kalem kuasai dulu</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['rt', 'omah', 'boto', 'house', 'andyrahman', 'architect']</t>
+          <t>['gabutid', 'tenang', 'tenang', 'kalem', 'kuasai', 'dulu']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['gabutid', 'tenang', 'tenang', 'kalem', 'kuasai', 'dulu']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['omah', 'boto', 'house', 'andyrahman', 'architect']</t>
+          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['omah', 'boto', 'house', 'andyrahman', 'architect']</t>
+          <t>['gabutid', 'tenang', 'tenang', 'kalem', 'kuasai']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['gabutid', 'tenang', 'tenang', 'kalem', 'kuasa']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>21196</v>
+        <v>24553</v>
       </c>
       <c r="C27" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ki sopo to anjir lali gas nooo tak balang akuarium ya raimu wkwkw</t>
+          <t>kagak pernah bangsattt</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['ki', 'sopo', 'to', 'anjir', 'lali', 'gas', 'nooo', 'tak', 'balang', 'akuarium', 'ya', 'raimu', 'wkwkw']</t>
+          <t>['kagak', 'pernah', 'bangsattt']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['tidak', 'pernah', 'bangsattt']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['ki', 'sopo', 'to', 'anjir', 'lali', 'gas', 'nooo', 'balang', 'akuarium', 'raimu', 'wkwkw']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['ki', 'sopo', 'to', 'anjir', 'lali', 'gas', 'nooo', 'balang', 'akuarium', 'rai', 'wkwkw']</t>
+          <t>['bangsattt']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['bangsattt']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>21197</v>
+        <v>24554</v>
       </c>
       <c r="C28" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>asu rak trimo cod wae bngst wkwk</t>
+          <t>untuk gua judi pake uang halal bukan uang haram jadi tidak haram kuadrat</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['asu', 'rak', 'trimo', 'cod', 'wae', 'bngst', 'wkwk']</t>
+          <t>['untuk', 'gua', 'judi', 'pake', 'uang', 'halal', 'bukan', 'uang', 'haram', 'jadi', 'tidak', 'haram', 'kuadrat']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['untuk', 'gue', 'judi', 'pakai', 'uang', 'halal', 'bukan', 'uang', 'haram', 'jadi', 'tidak', 'haram', 'kuadrat']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['asu', 'rak', 'trimo', 'cod', 'wae', 'bngst', 'wkwk']</t>
+          <t>&lt;FreqDist with 11 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['asu', 'rak', 'trimo', 'cod', 'wae', 'bngst', 'wkwk']</t>
+          <t>['gue', 'judi', 'pakai', 'uang', 'halal', 'uang', 'haram', 'haram', 'kuadrat']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['gue', 'judi', 'pakai', 'uang', 'halal', 'uang', 'haram', 'haram', 'kuadrat']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>21198</v>
+        <v>24555</v>
       </c>
       <c r="C29" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>bucin meneh chrck</t>
+          <t>rt</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['bucin', 'meneh', 'chrck']</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['bucin', 'meneh', 'chrck']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['bucin', 'teh', 'chrck']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1483,30 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>21199</v>
+        <v>24556</v>
       </c>
       <c r="C30" t="n">
-        <v>256</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>294</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>info terakhir baduy dalem udah gak bisa diakses wisatawan lurd efek kebarbaran wisatawan</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['info', 'terakhir', 'baduy', 'dalem', 'udah', 'gak', 'bisa', 'diakses', 'wisatawan', 'lurd', 'efek', 'kebarbaran', 'wisatawan']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['info', 'terakhir', 'badui', 'dalam', 'sudah', 'tidak', 'bisa', 'diakses', 'wisatawan', 'bro', 'efek', 'kebarbaran', 'wisatawan']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['info', 'badui', 'diakses', 'wisatawan', 'bro', 'efek', 'kebarbaran', 'wisatawan']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['info', 'badui', 'akses', 'wisatawan', 'bro', 'efek', 'barbar', 'wisatawan']</t>
         </is>
       </c>
     </row>
@@ -1515,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>21200</v>
+        <v>24557</v>
       </c>
       <c r="C31" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>tahun</t>
+          <t>prnutupan ihsg kurang bersahabat sesuai prediksi wkwkw tetep pantau ngab</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['tahun']</t>
+          <t>['prnutupan', 'ihsg', 'kurang', 'bersahabat', 'sesuai', 'prediksi', 'wkwkw', 'tetep', 'pantau', 'ngab']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['prnutupan', 'indeks, harga, saham, gabungan', 'kurang', 'bersahabat', 'sesuai', 'prediksi', 'wkwk', 'tetap', 'pantau', 'ngab']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['prnutupan', 'indeks, harga, saham, gabungan', 'bersahabat', 'sesuai', 'prediksi', 'wkwk', 'pantau', 'ngab']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['prnutupan', 'indeks harga saham gabung', 'sahabat', 'sesuai', 'prediksi', 'wkwk', 'pantau', 'ngab']</t>
         </is>
       </c>
     </row>
@@ -1551,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>21201</v>
+        <v>24558</v>
       </c>
       <c r="C32" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>mampussss</t>
+          <t>tins inco arb penutupan ihsg besok</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['mampussss']</t>
+          <t>['tins', 'inco', 'arb', 'penutupan', 'ihsg', 'besok']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['tins', 'inco', 'arb', 'penutupan', 'indeks, harga, saham, gabungan', 'besok']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['mampussss']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['mampussss']</t>
+          <t>['tins', 'inco', 'arb', 'penutupan', 'indeks, harga, saham, gabungan', 'besok']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['tins', 'inco', 'arb', 'tutup', 'indeks harga saham gabung', 'besok']</t>
         </is>
       </c>
     </row>
@@ -1587,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>21202</v>
+        <v>24559</v>
       </c>
       <c r="C33" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>haduhhh perangko kaliii nempel batttt</t>
+          <t>antm turun goceng sabi sikat</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['haduhhh', 'perangko', 'kaliii', 'nempel', 'batttt']</t>
+          <t>['antm', 'turun', 'goceng', 'sabi', 'sikat']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>['antm', 'turun', 'goceng', 'bisa', 'sikat']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>['haduhhh', 'perangko', 'kaliii', 'nempel', 'batttt']</t>
-        </is>
-      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['haduhhh', 'perangko', 'kaliii', 'nempel', 'batttt']</t>
+          <t>['antm', 'turun', 'goceng', 'sikat']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['antm', 'turun', 'goceng', 'sikat']</t>
         </is>
       </c>
     </row>
@@ -1623,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>21203</v>
+        <v>24560</v>
       </c>
       <c r="C34" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>anjing amat</t>
+          <t>mmk kau kependem</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['anjing', 'amat']</t>
+          <t>['mmk', 'kau', 'kependem']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['mmk', 'kamu', 'kependem']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['anjing']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['anjing']</t>
+          <t>['mmk', 'kependem']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['mmk', 'kependem']</t>
         </is>
       </c>
     </row>
@@ -1659,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>21204</v>
+        <v>24561</v>
       </c>
       <c r="C35" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>konten bucin check</t>
+          <t>rt yeu goblok gatau diri udeh ngerusak hubungan orang bisa bisa bilang gitu otaknye dipakek atuh ontohod</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['konten', 'bucin', 'check']</t>
+          <t>['rt', 'yeu', 'goblok', 'gatau', 'diri', 'udeh', 'ngerusak', 'hubungan', 'orang', 'bisa', 'bisa', 'bilang', 'gitu', 'otaknye', 'dipakek', 'atuh', 'ontohod']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'jijik', 'goblok', 'tak, tau', 'diri', 'sudah', 'merusak', 'hubungan', 'orang', 'bisa', 'bisa', 'bilang', 'begitu', 'otaknya', 'dipakek', 'atuh', 'ontohod']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['konten', 'bucin', 'check']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['konten', 'bucin', 'check']</t>
+          <t>['jijik', 'goblok', 'tak, tau', 'merusak', 'hubungan', 'orang', 'otaknya', 'dipakek', 'atuh', 'ontohod']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['jijik', 'goblok', 'tak tau', 'rusak', 'hubung', 'orang', 'otak', 'dipakek', 'atuh', 'ontohod']</t>
         </is>
       </c>
     </row>
@@ -1695,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>21205</v>
+        <v>24562</v>
       </c>
       <c r="C36" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>sikat</t>
+          <t xml:space="preserve">rt the fact that ill never be able to forgive anyone who has taken away my happiness and  thought the man would never be </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['sikat']</t>
+          <t>['rt', 'the', 'fact', 'that', 'ill', 'never', 'be', 'able', 'to', 'forgive', 'anyone', 'who', 'has', 'taken', 'away', 'my', 'happiness', 'and', 'thought', 'the', 'man', 'would', 'never', 'be']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'the', 'fact', 'that', 'ill', 'never', 'be', 'able', 'to', 'forgive', 'anyone', 'who', 'has', 'taken', 'away', 'my', 'happiness', 'and', 'thought', 'the', 'man', 'would', 'never', 'be']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['sikat']</t>
+          <t>&lt;FreqDist with 21 samples and 24 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['sikat']</t>
+          <t>['the', 'fact', 'that', 'ill', 'never', 'be', 'able', 'to', 'forgive', 'anyone', 'who', 'has', 'taken', 'away', 'my', 'happiness', 'and', 'thought', 'the', 'man', 'would', 'never', 'be']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['the', 'fact', 'that', 'ill', 'never', 'be', 'able', 'to', 'forgive', 'anyone', 'who', 'has', 'taken', 'away', 'my', 'happiness', 'and', 'thought', 'the', 'man', 'would', 'never', 'be']</t>
         </is>
       </c>
     </row>
@@ -1731,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>21206</v>
+        <v>24563</v>
       </c>
       <c r="C37" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ah mantap</t>
+          <t>yeu goblok gatau diri udeh ngerusak hubungan orang bisa bisa bilang gitu otaknye dipakek atuh ontohod pisan anjinc</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['ah', 'mantap']</t>
+          <t>['yeu', 'goblok', 'gatau', 'diri', 'udeh', 'ngerusak', 'hubungan', 'orang', 'bisa', 'bisa', 'bilang', 'gitu', 'otaknye', 'dipakek', 'atuh', 'ontohod', 'pisan', 'anjinc']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['jijik', 'goblok', 'tak, tau', 'diri', 'sudah', 'merusak', 'hubungan', 'orang', 'bisa', 'bisa', 'bilang', 'begitu', 'otaknya', 'dipakek', 'atuh', 'ontohod', 'banget', 'anjinc']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['ah', 'mantap']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['ah', 'mantap']</t>
+          <t>['jijik', 'goblok', 'tak, tau', 'merusak', 'hubungan', 'orang', 'otaknya', 'dipakek', 'atuh', 'ontohod', 'banget', 'anjinc']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['jijik', 'goblok', 'tak tau', 'rusak', 'hubung', 'orang', 'otak', 'dipakek', 'atuh', 'ontohod', 'banget', 'anjinc']</t>
         </is>
       </c>
     </row>
@@ -1767,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>21207</v>
+        <v>24564</v>
       </c>
       <c r="C38" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>andai kau tau</t>
+          <t>kurang kurangiii ngab gabaek buat kesehatan</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['andai', 'kau', 'tau']</t>
+          <t>['kurang', 'kurangiii', 'ngab', 'gabaek', 'buat', 'kesehatan']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['kurang', 'kurangiii', 'ngab', 'gabaek', 'buat', 'kesehatan']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['andai', 'kau']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['andai', 'kau']</t>
+          <t>['kurangiii', 'ngab', 'gabaek', 'kesehatan']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['kurangiii', 'ngab', 'gabaek', 'sehat']</t>
         </is>
       </c>
     </row>
@@ -1803,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>21208</v>
+        <v>24565</v>
       </c>
       <c r="C39" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>tanggungjawab goblokkk</t>
+          <t>tapi apa bangsat anak ngen</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['tanggungjawab', 'goblokkk']</t>
+          <t>['tapi', 'apa', 'bangsat', 'anak', 'ngen']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['tapi', 'apa', 'bangsat', 'anak', 'ngen']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['tanggungjawab', 'goblokkk']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['tanggungjawab', 'goblokkk']</t>
+          <t>['bangsat', 'anak', 'ngen']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['bangsat', 'anak', 'ngen']</t>
         </is>
       </c>
     </row>
@@ -1839,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>21209</v>
+        <v>24566</v>
       </c>
       <c r="C40" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>halalan toyibban</t>
+          <t>rt habis sholat jangan langsung berdiri</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['halalan', 'toyibban']</t>
+          <t>['rt', 'habis', 'sholat', 'jangan', 'langsung', 'berdiri']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'habis', 'salat', 'jangan', 'langsung', 'berdiri']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['halalan', 'toyibban']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['halal', 'toyibban']</t>
+          <t>['habis', 'salat', 'langsung', 'berdiri']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['habis', 'salat', 'langsung', 'diri']</t>
         </is>
       </c>
     </row>
@@ -1875,34 +2079,2495 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>21210</v>
+        <v>24567</v>
       </c>
       <c r="C41" t="n">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>urusan det belakangan penting deal sek ra</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>['urusan', 'det', 'belakangan', 'penting', 'deal', 'sek', 'ra']</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>['urusan', 'det', 'belakangan', 'penting', 'deal', 'sek', 'ra']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>['urusan', 'det', 'deal', 'sek', 'ra']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['urus', 'det', 'deal', 'sek', 'ra']</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>24568</v>
+      </c>
+      <c r="C42" t="n">
+        <v>294</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>hoala cah asu cah asu mending holiday</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>['hoala', 'cah', 'asu', 'cah', 'asu', 'mending', 'holiday']</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>['hoala', 'cah', 'anjing', 'cah', 'anjing', 'mending', 'holiday']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 7 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>['hoala', 'cah', 'anjing', 'cah', 'anjing', 'mending', 'holiday']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['hoala', 'cah', 'anjing', 'cah', 'anjing', 'mending', 'holiday']</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>24569</v>
+      </c>
+      <c r="C43" t="n">
+        <v>294</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>sg penting yakin to yaaaa</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>['sg', 'penting', 'yakin', 'to', 'yaaaa']</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>['sg', 'penting', 'yakin', 'to', 'ya']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>['sg', 'to']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['sg', 'to']</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>24570</v>
+      </c>
+      <c r="C44" t="n">
+        <v>294</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>salah serper lek serper dangdut pindah sebelah</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>['salah', 'serper', 'lek', 'serper', 'dangdut', 'pindah', 'sebelah']</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>['salah', 'serper', 'lek', 'serper', 'dangdut', 'pindah', 'sebelah']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>['salah', 'serper', 'lek', 'serper', 'dangdut', 'pindah', 'sebelah']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['salah', 'serper', 'lek', 'serper', 'dangdut', 'pindah', 'belah']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>24571</v>
+      </c>
+      <c r="C45" t="n">
+        <v>294</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>rossa ternyata kepala tertangkap gagal mencetak gol bung</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>['rossa', 'ternyata', 'kepala', 'tertangkap', 'gagal', 'mencetak', 'gol', 'bung']</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>['rossa', 'ternyata', 'kepala', 'tertangkap', 'gagal', 'mencetak', 'gol', 'bung']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>['rossa', 'kepala', 'tertangkap', 'gagal', 'mencetak', 'gol']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['rossa', 'kepala', 'tangkap', 'gagal', 'cetak', 'gol']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>24572</v>
+      </c>
+      <c r="C46" t="n">
+        <v>294</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>rossa kepala lu gelinding ege bang jep</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>['rossa', 'kepala', 'lu', 'gelinding', 'ege', 'bang', 'jep']</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>['rossa', 'kepala', 'kamu', 'gelinding', 'ege', 'bang', 'jep']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>['rossa', 'kepala', 'gelinding', 'ege', 'bang', 'jep']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['rossa', 'kepala', 'gelinding', 'ege', 'bang', 'jep']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>24573</v>
+      </c>
+      <c r="C47" t="n">
+        <v>294</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>bund hidup berjalan seperti</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>['bund', 'hidup', 'berjalan', 'seperti']</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>['bunda', 'hidup', 'berjalan', 'seperti']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>['bunda', 'hidup', 'berjalan']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['bunda', 'hidup', 'jalan']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>24574</v>
+      </c>
+      <c r="C48" t="n">
+        <v>294</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>rossa maap anjing gua galiat lu disitu cuk jep jep</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>['rossa', 'maap', 'anjing', 'gua', 'galiat', 'lu', 'disitu', 'cuk', 'jep', 'jep']</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>['rossa', 'maaf', 'anjing', 'gue', 'galiat', 'kamu', 'di, situ', 'cuk', 'jep', 'jep']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>['rossa', 'maaf', 'anjing', 'gue', 'galiat', 'di, situ', 'cuk', 'jep', 'jep']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['rossa', 'maaf', 'anjing', 'gue', 'galiat', 'di situ', 'cuk', 'jep', 'jep']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>24575</v>
+      </c>
+      <c r="C49" t="n">
+        <v>294</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>rossa yaudah sana aku mau kayang sambil ngepel lantai dulu</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>['rossa', 'yaudah', 'sana', 'aku', 'mau', 'kayang', 'sambil', 'ngepel', 'lantai', 'dulu']</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>['rossa', 'ya, sudah', 'sana', 'aku', 'mau', 'kayang', 'sambil', 'ngepel', 'lantai', 'dulu']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>['rossa', 'ya, sudah', 'kayang', 'ngepel', 'lantai']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['rossa', 'ya sudah', 'kayang', 'ngepel', 'lantai']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>24576</v>
+      </c>
+      <c r="C50" t="n">
+        <v>294</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>paansi anjinggg gajelas si ngtd</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>['paansi', 'anjinggg', 'gajelas', 'si', 'ngtd']</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>['paansi', 'anjinggg', 'tidak, jelas', 'sih', 'ngtd']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>['paansi', 'anjinggg', 'tidak, jelas', 'ngtd']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['paansi', 'anjinggg', 'tidak jelas', 'ngtd']</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>24577</v>
+      </c>
+      <c r="C51" t="n">
+        <v>294</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>the fact that ill never be able to forgive anyone who has taken away my happiness and  thought the man would ne</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>['the', 'fact', 'that', 'ill', 'never', 'be', 'able', 'to', 'forgive', 'anyone', 'who', 'has', 'taken', 'away', 'my', 'happiness', 'and', 'thought', 'the', 'man', 'would', 'ne']</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>['the', 'fact', 'that', 'ill', 'never', 'be', 'able', 'to', 'forgive', 'anyone', 'who', 'has', 'taken', 'away', 'my', 'happiness', 'and', 'thought', 'the', 'man', 'would', 'ini']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 21 samples and 22 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>['the', 'fact', 'that', 'ill', 'never', 'be', 'able', 'to', 'forgive', 'anyone', 'who', 'has', 'taken', 'away', 'my', 'happiness', 'and', 'thought', 'the', 'man', 'would']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['the', 'fact', 'that', 'ill', 'never', 'be', 'able', 'to', 'forgive', 'anyone', 'who', 'has', 'taken', 'away', 'my', 'happiness', 'and', 'thought', 'the', 'man', 'would']</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>24578</v>
+      </c>
+      <c r="C52" t="n">
+        <v>294</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>rt dia pun pernah bercerita bagaimana dia di sakiti oleh yang dia cintai di depan aku yang mencintai nya</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>['rt', 'dia', 'pun', 'pernah', 'bercerita', 'bagaimana', 'dia', 'di', 'sakiti', 'oleh', 'yang', 'dia', 'cintai', 'di', 'depan', 'aku', 'yang', 'mencintai', 'nya']</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>['rt', 'dia', 'pun', 'pernah', 'bercerita', 'bagaimana', 'dia', 'di', 'menyakiti', 'oleh', 'yang', 'dia', 'cintai', 'di', 'depan', 'aku', 'yang', 'mencintai', 'nya']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>['bercerita', 'menyakiti', 'cintai', 'mencintai']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['cerita', 'sakit', 'cinta', 'cinta']</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>24579</v>
+      </c>
+      <c r="C53" t="n">
+        <v>294</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>bulan maret det ku garek sakipetttt</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>['bulan', 'maret', 'det', 'ku', 'garek', 'sakipetttt']</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>['bulan', 'maret', 'det', 'ku', 'garek', 'sakipetttt']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>['maret', 'det', 'ku', 'garek', 'sakipetttt']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['maret', 'det', 'ku', 'garek', 'sakipetttt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>24580</v>
+      </c>
+      <c r="C54" t="n">
+        <v>294</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>yak tiktok ya akun bucin semua jadi satu lah yaaa bund</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>['yak', 'tiktok', 'ya', 'akun', 'bucin', 'semua', 'jadi', 'satu', 'lah', 'yaaa', 'bund']</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>['ya', 'tiktok', 'ya', 'akun', 'budak, cinta', 'semua', 'jadi', 'satu', 'lah', 'ya', 'bunda']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 9 samples and 11 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>['tiktok', 'akun', 'budak, cinta', 'bunda']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['tiktok', 'akun', 'budak cinta', 'bunda']</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>24581</v>
+      </c>
+      <c r="C55" t="n">
+        <v>294</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>serper sebelah masih kalah jauh sama asbak surya</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>['serper', 'sebelah', 'masih', 'kalah', 'jauh', 'sama', 'asbak', 'surya']</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>['serper', 'sebelah', 'masih', 'kalah', 'jauh', 'sama', 'asbak', 'surya']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>['serper', 'sebelah', 'kalah', 'asbak', 'surya']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['serper', 'belah', 'kalah', 'asbak', 'surya']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>24582</v>
+      </c>
+      <c r="C56" t="n">
+        <v>294</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>conda canda conda candaaa nyoh</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>['conda', 'canda', 'conda', 'candaaa', 'nyoh']</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>['conda', 'canda', 'conda', 'candaaa', 'nih']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>['conda', 'canda', 'conda', 'candaaa']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['conda', 'canda', 'conda', 'candaaa']</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>24583</v>
+      </c>
+      <c r="C57" t="n">
+        <v>294</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>puntennn</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>['puntennn']</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>['puntennn']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>['puntennn']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['puntennn']</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>24584</v>
+      </c>
+      <c r="C58" t="n">
+        <v>294</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>yap</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>['yap']</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['iya']</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>24585</v>
+      </c>
+      <c r="C59" t="n">
+        <v>294</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>cwku</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>['cwku']</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>['cwku']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>['cwku']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['cwku']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>24586</v>
+      </c>
+      <c r="C60" t="n">
+        <v>294</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>rt maunya telfonan jam sama kamu bisa gak kira kira</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>['rt', 'maunya', 'telfonan', 'jam', 'sama', 'kamu', 'bisa', 'gak', 'kira', 'kira']</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>['rt', 'maunya', 'telfonan', 'jam', 'sama', 'kamu', 'bisa', 'tidak', 'kira', 'kira']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>['maunya', 'telfonan', 'jam']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['mau', 'telfonan', 'jam']</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>24587</v>
+      </c>
+      <c r="C61" t="n">
+        <v>294</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>auto ciu berlabel pajak pinter juga</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>['auto', 'ciu', 'berlabel', 'pajak', 'pinter', 'juga']</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>['auto', 'ciu', 'berlabel', 'pajak', 'pintar', 'juga']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>['auto', 'ciu', 'berlabel', 'pajak', 'pintar']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['auto', 'ciu', 'label', 'pajak', 'pintar']</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>24588</v>
+      </c>
+      <c r="C62" t="n">
+        <v>294</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>anjing pisan ieu bapack bapack</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>['anjing', 'pisan', 'ieu', 'bapack', 'bapack']</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>['anjing', 'banget', 'ih', 'bapack', 'bapack']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>['anjing', 'banget', 'ih', 'bapack', 'bapack']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['anjing', 'banget', 'ih', 'bapack', 'bapack']</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>24589</v>
+      </c>
+      <c r="C63" t="n">
+        <v>294</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>rt omah boto house andyrahman architect</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>['rt', 'omah', 'boto', 'house', 'andyrahman', 'architect']</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>['rt', 'omah', 'boto', 'house', 'andyrahman', 'architect']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>['omah', 'boto', 'house', 'andyrahman', 'architect']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['omah', 'boto', 'house', 'andyrahman', 'architect']</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>24590</v>
+      </c>
+      <c r="C64" t="n">
+        <v>294</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>ki sopo to anjir lali gas nooo tak balang akuarium ya raimu wkwkw</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>['ki', 'sopo', 'to', 'anjir', 'lali', 'gas', 'nooo', 'tak', 'balang', 'akuarium', 'ya', 'raimu', 'wkwkw']</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>['ki', 'siapa', 'to', 'anjir', 'lali', 'gas', 'nooo', 'tak', 'balang', 'akuarium', 'ya', 'mukamu', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>['ki', 'to', 'anjir', 'lali', 'gas', 'nooo', 'balang', 'akuarium', 'mukamu', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['ki', 'to', 'anjir', 'lali', 'gas', 'nooo', 'balang', 'akuarium', 'muka', 'wkwk']</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>24591</v>
+      </c>
+      <c r="C65" t="n">
+        <v>294</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>asu rak trimo cod wae bngst wkwk</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>['asu', 'rak', 'trimo', 'cod', 'wae', 'bngst', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>['anjing', 'rak', 'trimo', 'cod', 'saja', 'bangsat', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>['anjing', 'rak', 'trimo', 'cod', 'bangsat', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['anjing', 'rak', 'trimo', 'cod', 'bangsat', 'wkwk']</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>24592</v>
+      </c>
+      <c r="C66" t="n">
+        <v>294</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>bucin meneh chrck</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>['bucin', 'meneh', 'chrck']</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>['budak, cinta', 'lagi', 'chrck']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>['budak, cinta', 'chrck']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['budak cinta', 'chrck']</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>24593</v>
+      </c>
+      <c r="C67" t="n">
+        <v>294</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>24594</v>
+      </c>
+      <c r="C68" t="n">
+        <v>294</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>tahun</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>['tahun']</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>['tahun']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>24595</v>
+      </c>
+      <c r="C69" t="n">
+        <v>294</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>mampussss</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>['mampussss']</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>['mampussss']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>['mampussss']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['mampussss']</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>24596</v>
+      </c>
+      <c r="C70" t="n">
+        <v>294</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>haduhhh perangko kaliii nempel batttt</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>['haduhhh', 'perangko', 'kaliii', 'nempel', 'batttt']</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>['haduhhh', 'perangko', 'kali', 'menempel', 'batttt']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>['haduhhh', 'perangko', 'kali', 'menempel', 'batttt']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['haduhhh', 'perangko', 'kali', 'tempel', 'batttt']</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>24597</v>
+      </c>
+      <c r="C71" t="n">
+        <v>294</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>anjing amat</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>['anjing', 'amat']</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>['anjing', 'amat']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>['anjing']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['anjing']</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>24598</v>
+      </c>
+      <c r="C72" t="n">
+        <v>294</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>konten bucin check</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>['konten', 'bucin', 'check']</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>['konten', 'budak, cinta', 'check']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>['konten', 'budak, cinta', 'check']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['konten', 'budak cinta', 'check']</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>24599</v>
+      </c>
+      <c r="C73" t="n">
+        <v>294</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>sikat</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>['sikat']</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>['sikat']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>['sikat']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['sikat']</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>24600</v>
+      </c>
+      <c r="C74" t="n">
+        <v>294</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>ah mantap</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>['ah', 'mantap']</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>['ah', 'mantap']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>['ah', 'mantap']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['ah', 'mantap']</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>24601</v>
+      </c>
+      <c r="C75" t="n">
+        <v>294</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>andai kau tau</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>['andai', 'kau', 'tau']</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>['andai', 'kamu', 'tau']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>['andai']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['andai']</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>24602</v>
+      </c>
+      <c r="C76" t="n">
+        <v>294</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>tanggungjawab goblokkk</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>['tanggungjawab', 'goblokkk']</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>['tanggung, jawab', 'goblok']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>['tanggung, jawab', 'goblok']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['tanggung jawab', 'goblok']</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>24603</v>
+      </c>
+      <c r="C77" t="n">
+        <v>294</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>halalan toyibban</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>['halalan', 'toyibban']</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>['halalan', 'toyibban']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>['halalan', 'toyibban']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['halal', 'toyibban']</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>24604</v>
+      </c>
+      <c r="C78" t="n">
+        <v>294</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>tuku rokok rong pack raimu ya pak</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>['tuku', 'rokok', 'rong', 'pack', 'raimu', 'ya', 'pak']</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>['tuku', 'rokok', 'rong', 'pack', 'mukamu', 'ya', 'pak']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
         <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>['tuku', 'rokok', 'rong', 'pack', 'raimu']</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>['tuku', 'rokok', 'rong', 'pack', 'rai']</t>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>['tuku', 'rokok', 'rong', 'pack', 'mukamu']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['tuku', 'rokok', 'rong', 'pack', 'muka']</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>24605</v>
+      </c>
+      <c r="C79" t="n">
+        <v>294</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>rt demi ketenangan aku sengaja gatau gamau tau dan gamau cari tau</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>['rt', 'demi', 'ketenangan', 'aku', 'sengaja', 'gatau', 'gamau', 'tau', 'dan', 'gamau', 'cari', 'tau']</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>['rt', 'demi', 'ketenangan', 'aku', 'sengaja', 'tak, tau', 'tidak, mau', 'tau', 'dan', 'tidak, mau', 'cari', 'tau']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>['ketenangan', 'sengaja', 'tak, tau', 'tidak, mau', 'tidak, mau', 'cari']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['tenang', 'sengaja', 'tak tau', 'tidak mau', 'tidak mau', 'cari']</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>24606</v>
+      </c>
+      <c r="C80" t="n">
+        <v>294</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>airbnb emang the best</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>['airbnb', 'emang', 'the', 'best']</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>['airbnb', 'memang', 'the', 'best']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>['airbnb', 'the', 'best']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['airbnb', 'the', 'best']</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>24607</v>
+      </c>
+      <c r="C81" t="n">
+        <v>294</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>coli kekiri coli kekanannnn</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>['coli', 'kekiri', 'coli', 'kekanannnn']</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>['coli', 'ke, kiri', 'coli', 'kekanannnn']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>['coli', 'ke, kiri', 'coli', 'kekanannnn']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['coli', 'ke kiri', 'coli', 'kekanannnn']</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>24608</v>
+      </c>
+      <c r="C82" t="n">
+        <v>294</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>potong bebek angsa masak dikuali</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>['potong', 'bebek', 'angsa', 'masak', 'dikuali']</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>['potong', 'bebek', 'angsa', 'masak', 'dikuali']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>['potong', 'bebek', 'angsa', 'masak', 'dikuali']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['potong', 'bebek', 'angsa', 'masak', 'kuali']</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>24609</v>
+      </c>
+      <c r="C83" t="n">
+        <v>294</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>asyuuu lompia tenan sg ngedit</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>['asyuuu', 'lompia', 'tenan', 'sg', 'ngedit']</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>['asyuuu', 'lompia', 'benaran', 'sg', 'mengedit']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>['asyuuu', 'lompia', 'benaran', 'sg', 'mengedit']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['asyuuu', 'lompia', 'benar', 'sg', 'edit']</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>24610</v>
+      </c>
+      <c r="C84" t="n">
+        <v>294</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>aku sih</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>['aku', 'sih']</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>['aku', 'sih']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>24611</v>
+      </c>
+      <c r="C85" t="n">
+        <v>294</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>kapan di tompo ne ya to</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>['kapan', 'di', 'tompo', 'ne', 'ya', 'to']</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>['kapan', 'di', 'tompo', 'ini', 'ya', 'to']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>['tompo', 'to']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['tompo', 'to']</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>24612</v>
+      </c>
+      <c r="C86" t="n">
+        <v>294</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>aduhhh sesasi meneh poso kiii piye</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>['aduhhh', 'sesasi', 'meneh', 'poso', 'kiii', 'piye']</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>['aduh', 'sesasi', 'lagi', 'poso', 'kiii', 'bagaimana']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>['aduh', 'sesasi', 'poso', 'kiii']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['aduh', 'sasi', 'poso', 'kiii']</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>24613</v>
+      </c>
+      <c r="C87" t="n">
+        <v>294</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>tahantahan ngab</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>['tahantahan', 'ngab']</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>['tahantahan', 'ngab']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>['tahantahan', 'ngab']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['tahantahan', 'ngab']</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>24614</v>
+      </c>
+      <c r="C88" t="n">
+        <v>294</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>rt  terkadang seseorang itu salah mengartikan buta dalam cinta sebenarnya cinta itu buta artinya ket</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>['rt', 'terkadang', 'seseorang', 'itu', 'salah', 'mengartikan', 'buta', 'dalam', 'cinta', 'sebenarnya', 'cinta', 'itu', 'buta', 'artinya', 'ket']</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>['rt', 'terkadang', 'seseorang', 'itu', 'salah', 'mengartikan', 'buta', 'dalam', 'cinta', 'sebenarnya', 'cinta', 'itu', 'buta', 'artinya', 'ket']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>['terkadang', 'salah', 'mengartikan', 'buta', 'cinta', 'cinta', 'buta', 'ket']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['terkadang', 'salah', 'arti', 'buta', 'cinta', 'cinta', 'buta', 'ket']</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>24615</v>
+      </c>
+      <c r="C89" t="n">
+        <v>294</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>gunung ku tapaki lautan ku sebrangi apalah aku yang cuma bisa</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>['gunung', 'ku', 'tapaki', 'lautan', 'ku', 'sebrangi', 'apalah', 'aku', 'yang', 'cuma', 'bisa']</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>['gunung', 'ku', 'tapaki', 'lautan', 'ku', 'sebrangi', 'apalah', 'aku', 'yang', 'cuma', 'bisa']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>['gunung', 'ku', 'tapaki', 'lautan', 'ku', 'sebrangi', 'apalah']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['gunung', 'ku', 'tapak', 'laut', 'ku', 'sebrangi', 'apa']</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>24616</v>
+      </c>
+      <c r="C90" t="n">
+        <v>294</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>tae taekkkk</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>['tae', 'taekkkk']</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>['tai', 'taekkkk']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>['tai', 'taekkkk']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['tai', 'taekkkk']</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>24617</v>
+      </c>
+      <c r="C91" t="n">
+        <v>294</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>but anggurmerah never change</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>['but', 'anggurmerah', 'never', 'change']</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>['but', 'anggurmerah', 'never', 'change']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>['but', 'anggurmerah', 'never', 'change']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['but', 'anggurmerah', 'never', 'change']</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>24618</v>
+      </c>
+      <c r="C92" t="n">
+        <v>294</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>golongan orang yang ngepublish tapi gapernah di repost cuma di double tap di dm sini duduk melingkar</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>['golongan', 'orang', 'yang', 'ngepublish', 'tapi', 'gapernah', 'di', 'repost', 'cuma', 'di', 'double', 'tap', 'di', 'dm', 'sini', 'duduk', 'melingkar']</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>['golongan', 'orang', 'yang', 'ngepublish', 'tapi', 'tidak, pernah', 'di', 'repost', 'cuma', 'di', 'double', 'tap', 'di', 'direct, message', 'sini', 'duduk', 'melingkar']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>['golongan', 'orang', 'ngepublish', 'tidak, pernah', 'repost', 'double', 'tap', 'direct, message', 'duduk', 'melingkar']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['golong', 'orang', 'ngepublish', 'tidak pernah', 'repost', 'double', 'tap', 'direct message', 'duduk', 'lingkar']</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>24619</v>
+      </c>
+      <c r="C93" t="n">
+        <v>294</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>meh tak jak balap karo blue aerostreet malah wes di dol</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>['meh', 'tak', 'jak', 'balap', 'karo', 'blue', 'aerostreet', 'malah', 'wes', 'di', 'dol']</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>['meh', 'tak', 'jak', 'balap', 'sama', 'blue', 'aerostreet', 'malah', 'sudah', 'di', 'dol']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>['meh', 'jak', 'balap', 'blue', 'aerostreet', 'dol']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['meh', 'jak', 'balap', 'blue', 'aerostreet', 'dol']</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>24620</v>
+      </c>
+      <c r="C94" t="n">
+        <v>294</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>hmm kok iyooo</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>['hmm', 'kok', 'iyooo']</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>['hem', 'kok', 'iyooo']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>['hem', 'iyooo']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['hem', 'iyooo']</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>24621</v>
+      </c>
+      <c r="C95" t="n">
+        <v>294</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>tenang saja urusan ukt dibelakang layar sajaaaa</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>['tenang', 'saja', 'urusan', 'ukt', 'dibelakang', 'layar', 'sajaaaa']</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>['tenang', 'saja', 'urusan', 'ukt', 'di, belakang', 'layar', 'sajaaaa']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>['tenang', 'urusan', 'ukt', 'di, belakang', 'layar', 'sajaaaa']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['tenang', 'urus', 'ukt', 'di belakang', 'layar', 'sajaaaa']</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>24622</v>
+      </c>
+      <c r="C96" t="n">
+        <v>294</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>la bangsat bisa bisanya</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>['la', 'bangsat', 'bisa', 'bisanya']</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>['lah', 'bangsat', 'bisa', 'bisanya']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>['bangsat', 'bisanya']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['bangsat', 'bisa']</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>24623</v>
+      </c>
+      <c r="C97" t="n">
+        <v>294</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>inget lek</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>['inget', 'lek']</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>['ingat', 'lek']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>['lek']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['lek']</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>24624</v>
+      </c>
+      <c r="C98" t="n">
+        <v>294</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>yaha goblok</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>['yaha', 'goblok']</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>['yaha', 'goblok']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>['yaha', 'goblok']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['yaha', 'goblok']</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>24625</v>
+      </c>
+      <c r="C99" t="n">
+        <v>294</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>udeh gua fhellew lagi lek qalemm</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>['udeh', 'gua', 'fhellew', 'lagi', 'lek', 'qalemm']</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>['sudah', 'gue', 'fhellew', 'lagi', 'lek', 'qalemm']</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>['gue', 'fhellew', 'lek', 'qalemm']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['gue', 'fhellew', 'lek', 'qalemm']</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>24626</v>
+      </c>
+      <c r="C100" t="n">
+        <v>294</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>ga surya ga senyum</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>['ga', 'surya', 'ga', 'senyum']</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>['tidak', 'surya', 'tidak', 'senyum']</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 3 samples and 4 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>['surya', 'senyum']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['surya', 'senyum']</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>24627</v>
+      </c>
+      <c r="C101" t="n">
+        <v>294</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>tetep sesuai user name gua</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>['tetep', 'sesuai', 'user', 'name', 'gua']</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>['tetap', 'sesuai', 'pengguna', 'nama', 'gue']</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>['sesuai', 'pengguna', 'nama', 'gue']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['sesuai', 'guna', 'nama', 'gue']</t>
         </is>
       </c>
     </row>
